--- a/Guild Digital/Example CHT application/forms/app/replace_user.xlsx
+++ b/Guild Digital/Example CHT application/forms/app/replace_user.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="315">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -488,9 +488,6 @@
   </si>
   <si>
     <t xml:space="preserve">${user_phone}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inherited from existing user</t>
   </si>
   <si>
     <t xml:space="preserve">tel</t>
@@ -1456,12 +1453,12 @@
   </sheetPr>
   <dimension ref="A1:R98"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F57" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A57" activeCellId="0" sqref="A57"/>
-      <selection pane="bottomRight" activeCell="I70" activeCellId="0" sqref="I70"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A53" activeCellId="0" sqref="A53"/>
+      <selection pane="bottomRight" activeCell="B82" activeCellId="0" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3137,22 +3134,18 @@
       <c r="I71" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="J71" s="18" t="s">
-        <v>140</v>
-      </c>
+      <c r="J71" s="18"/>
       <c r="K71" s="19"/>
-      <c r="L71" s="19" t="s">
-        <v>74</v>
-      </c>
+      <c r="L71" s="19"/>
       <c r="M71" s="19"/>
       <c r="N71" s="19"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" s="17" t="s">
         <v>141</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>142</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>31</v>
@@ -3161,14 +3154,14 @@
         <v>74</v>
       </c>
       <c r="E72" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F72" s="19"/>
       <c r="G72" s="19" t="s">
         <v>74</v>
       </c>
       <c r="H72" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I72" s="19"/>
       <c r="J72" s="18"/>
@@ -3193,7 +3186,7 @@
       <c r="G73" s="19"/>
       <c r="H73" s="18"/>
       <c r="I73" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J73" s="18"/>
       <c r="K73" s="19"/>
@@ -3203,13 +3196,13 @@
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B74" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" s="18" t="s">
         <v>146</v>
-      </c>
-      <c r="C74" s="18" t="s">
-        <v>147</v>
       </c>
       <c r="D74" s="19"/>
       <c r="E74" s="19"/>
@@ -3218,7 +3211,7 @@
         <v>74</v>
       </c>
       <c r="H74" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I74" s="19"/>
       <c r="J74" s="18"/>
@@ -3229,7 +3222,7 @@
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B75" s="17" t="s">
         <v>38</v>
@@ -3240,20 +3233,16 @@
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
       <c r="F75" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G75" s="19"/>
       <c r="H75" s="18"/>
       <c r="I75" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="J75" s="18" t="s">
-        <v>140</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="J75" s="18"/>
       <c r="K75" s="19"/>
-      <c r="L75" s="19" t="s">
-        <v>74</v>
-      </c>
+      <c r="L75" s="19"/>
       <c r="M75" s="19"/>
       <c r="N75" s="19"/>
     </row>
@@ -3262,10 +3251,10 @@
         <v>34</v>
       </c>
       <c r="B76" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C76" s="18" t="s">
         <v>151</v>
-      </c>
-      <c r="C76" s="18" t="s">
-        <v>152</v>
       </c>
       <c r="D76" s="19"/>
       <c r="E76" s="19"/>
@@ -3284,7 +3273,7 @@
         <v>14</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C77" s="18" t="s">
         <v>16</v>
@@ -3317,7 +3306,7 @@
       <c r="G78" s="19"/>
       <c r="H78" s="18"/>
       <c r="I78" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J78" s="18"/>
       <c r="K78" s="19"/>
@@ -3339,7 +3328,7 @@
       <c r="G79" s="19"/>
       <c r="H79" s="18"/>
       <c r="I79" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J79" s="18"/>
       <c r="K79" s="19"/>
@@ -3361,7 +3350,7 @@
       <c r="G80" s="19"/>
       <c r="H80" s="18"/>
       <c r="I80" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J80" s="18"/>
       <c r="K80" s="19"/>
@@ -3374,7 +3363,7 @@
         <v>32</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C81" s="18"/>
       <c r="D81" s="19"/>
@@ -3394,7 +3383,7 @@
         <v>44</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C82" s="18"/>
       <c r="D82" s="19"/>
@@ -3403,14 +3392,14 @@
       <c r="G82" s="19"/>
       <c r="H82" s="18"/>
       <c r="I82" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J82" s="18"/>
       <c r="K82" s="19"/>
       <c r="L82" s="19"/>
       <c r="M82" s="19"/>
       <c r="N82" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3438,7 +3427,7 @@
         <v>44</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C84" s="18"/>
       <c r="D84" s="19"/>
@@ -3447,14 +3436,14 @@
       <c r="G84" s="19"/>
       <c r="H84" s="18"/>
       <c r="I84" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J84" s="18"/>
       <c r="K84" s="19"/>
       <c r="L84" s="19"/>
       <c r="M84" s="19"/>
       <c r="N84" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3462,7 +3451,7 @@
         <v>44</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C85" s="18"/>
       <c r="D85" s="19"/>
@@ -3471,7 +3460,7 @@
       <c r="G85" s="19"/>
       <c r="H85" s="18"/>
       <c r="I85" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J85" s="18"/>
       <c r="K85" s="19"/>
@@ -3484,7 +3473,7 @@
         <v>44</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C86" s="18"/>
       <c r="D86" s="19"/>
@@ -3493,7 +3482,7 @@
       <c r="G86" s="19"/>
       <c r="H86" s="18"/>
       <c r="I86" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J86" s="18"/>
       <c r="K86" s="19"/>
@@ -3514,7 +3503,7 @@
         <v>14</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C88" s="18" t="s">
         <v>16</v>
@@ -3565,7 +3554,7 @@
         <v>70</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
@@ -3584,7 +3573,7 @@
         <v>32</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C91" s="18"/>
       <c r="D91" s="19"/>
@@ -3771,7 +3760,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>1</v>
@@ -3797,13 +3786,13 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>170</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>171</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
@@ -3843,13 +3832,13 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="24" t="s">
         <v>173</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>174</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -3869,13 +3858,13 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>175</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>176</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
@@ -3895,13 +3884,13 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>177</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>178</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -3921,13 +3910,13 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>179</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>180</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
@@ -3947,13 +3936,13 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>181</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>182</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
@@ -3973,13 +3962,13 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>183</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>184</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
@@ -3999,13 +3988,13 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>185</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>186</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
@@ -4025,13 +4014,13 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>187</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>188</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
@@ -4051,13 +4040,13 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>189</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>190</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
@@ -4097,13 +4086,13 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="C14" s="11" t="s">
         <v>192</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>193</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
@@ -4123,13 +4112,13 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B15" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>194</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>195</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
@@ -5387,7 +5376,7 @@
   </sheetPr>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
@@ -5403,25 +5392,25 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -5445,23 +5434,23 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>203</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>204</v>
       </c>
       <c r="C2" s="10" t="str">
         <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-07-18  23-04</v>
+        <v>2023-11-30  12-14</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="G2" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -5488,7 +5477,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="2" style="0" width="45.86"/>
@@ -5496,7 +5485,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>1</v>
@@ -5505,22 +5494,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="F1" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="G1" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="H1" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="I1" s="33" t="s">
         <v>212</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>213</v>
       </c>
       <c r="J1" s="34"/>
       <c r="K1" s="34"/>
@@ -5539,13 +5528,13 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="C2" s="35" t="s">
         <v>215</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>216</v>
       </c>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -5570,13 +5559,13 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B3" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>217</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>218</v>
       </c>
       <c r="D3" s="35"/>
       <c r="E3" s="35"/>
@@ -5626,13 +5615,13 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="C5" s="35" t="s">
         <v>220</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>221</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="35"/>
@@ -5657,13 +5646,13 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B6" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="35" t="s">
         <v>222</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>223</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="35"/>
@@ -5688,13 +5677,13 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B7" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" s="35" t="s">
         <v>224</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>225</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="35"/>
@@ -5719,13 +5708,13 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B8" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="C8" s="35" t="s">
         <v>226</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>227</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="35"/>
@@ -5750,13 +5739,13 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B9" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" s="35" t="s">
         <v>228</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>229</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="35"/>
@@ -5806,13 +5795,13 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="C11" s="35" t="s">
         <v>231</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>232</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
@@ -5837,13 +5826,13 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B12" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" s="35" t="s">
         <v>233</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>234</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="35"/>
@@ -5868,13 +5857,13 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B13" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" s="35" t="s">
         <v>235</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>236</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="35"/>
@@ -5899,13 +5888,13 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B14" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="C14" s="35" t="s">
         <v>237</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>238</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
@@ -5930,13 +5919,13 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B15" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="35" t="s">
         <v>239</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>240</v>
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="35"/>
@@ -5961,13 +5950,13 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B16" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16" s="35" t="s">
         <v>241</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>242</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
@@ -6017,13 +6006,13 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B18" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="C18" s="35" t="s">
         <v>231</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>232</v>
       </c>
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
@@ -6048,13 +6037,13 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B19" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="C19" s="35" t="s">
         <v>233</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>234</v>
       </c>
       <c r="D19" s="35"/>
       <c r="E19" s="35"/>
@@ -6079,13 +6068,13 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B20" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20" s="35" t="s">
         <v>235</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>236</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
@@ -6110,13 +6099,13 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B21" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" s="35" t="s">
         <v>237</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>238</v>
       </c>
       <c r="D21" s="35"/>
       <c r="E21" s="35"/>
@@ -6141,13 +6130,13 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B22" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="C22" s="35" t="s">
         <v>241</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>242</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
@@ -6172,13 +6161,13 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="B23" s="35" t="s">
         <v>243</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="C23" s="35" t="s">
         <v>244</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>245</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
@@ -6228,13 +6217,13 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="B25" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="C25" s="35" t="s">
         <v>247</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>248</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
@@ -6259,13 +6248,13 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B26" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="C26" s="35" t="s">
         <v>249</v>
-      </c>
-      <c r="C26" s="35" t="s">
-        <v>250</v>
       </c>
       <c r="D26" s="35"/>
       <c r="E26" s="35"/>
@@ -6290,13 +6279,13 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B27" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="C27" s="35" t="s">
         <v>251</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>252</v>
       </c>
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
@@ -6321,13 +6310,13 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B28" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="C28" s="35" t="s">
         <v>253</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>254</v>
       </c>
       <c r="D28" s="35"/>
       <c r="E28" s="35"/>
@@ -6352,13 +6341,13 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B29" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="C29" s="35" t="s">
         <v>255</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>256</v>
       </c>
       <c r="D29" s="35"/>
       <c r="E29" s="35"/>
@@ -6408,13 +6397,13 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="B31" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="B31" s="35" t="s">
-        <v>258</v>
-      </c>
       <c r="C31" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
@@ -6439,13 +6428,13 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="35" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
@@ -6495,121 +6484,121 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B34" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B35" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C35, "(", ""), ")", "")), " ", "_")</f>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B36" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C36, "(", ""), ")", "")), " ", "_")</f>
         <v>injectibles</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B37" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C37, "(", ""), ")", "")), " ", "_")</f>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B38" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C38, "(", ""), ")", "")), " ", "_")</f>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B39" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C39, "(", ""), ")", "")), " ", "_")</f>
         <v>iud</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B40" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C40, "(", ""), ")", "")), " ", "_")</f>
         <v>condoms</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B41" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C41, "(", ""), ")", "")), " ", "_")</f>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B42" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C42, "(", ""), ")", "")), " ", "_")</f>
         <v>cycle_beads</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B43" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C43" s="0" t="s">
         <v>255</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6620,26 +6609,26 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B45" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C45, "(", ""), ")", "")), " ", "_")</f>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B46" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C46, "(", ""), ")", "")), " ", "_")</f>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6650,13 +6639,13 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="B48" s="36" t="s">
         <v>273</v>
       </c>
-      <c r="B48" s="36" t="s">
+      <c r="C48" s="36" t="s">
         <v>274</v>
-      </c>
-      <c r="C48" s="36" t="s">
-        <v>275</v>
       </c>
       <c r="D48" s="36"/>
       <c r="E48" s="36"/>
@@ -6681,13 +6670,13 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B49" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="C49" s="36" t="s">
         <v>276</v>
-      </c>
-      <c r="C49" s="36" t="s">
-        <v>277</v>
       </c>
       <c r="D49" s="36"/>
       <c r="E49" s="36"/>
@@ -6713,226 +6702,226 @@
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B51" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="C51" s="0" t="s">
         <v>279</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B52" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C52" s="0" t="s">
         <v>281</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B53" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="C53" s="0" t="s">
         <v>283</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B54" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="C54" s="0" t="s">
         <v>285</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B55" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="C55" s="0" t="s">
         <v>287</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B56" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C56" s="0" t="s">
         <v>255</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="B58" s="36" t="s">
         <v>289</v>
       </c>
-      <c r="B58" s="36" t="s">
+      <c r="C58" s="36" t="s">
         <v>290</v>
-      </c>
-      <c r="C58" s="36" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="36" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B59" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="C59" s="36" t="s">
         <v>292</v>
-      </c>
-      <c r="C59" s="36" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="36" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B60" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="C60" s="36" t="s">
         <v>294</v>
-      </c>
-      <c r="C60" s="36" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="36" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B61" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="C61" s="36" t="s">
         <v>255</v>
-      </c>
-      <c r="C61" s="36" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="B63" s="34" t="s">
         <v>296</v>
       </c>
-      <c r="B63" s="34" t="s">
+      <c r="C63" s="36" t="s">
         <v>297</v>
-      </c>
-      <c r="C63" s="36" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="34" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B64" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="C64" s="36" t="s">
         <v>299</v>
-      </c>
-      <c r="C64" s="36" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="34" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B65" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="C65" s="36" t="s">
         <v>301</v>
-      </c>
-      <c r="C65" s="36" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="34" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B66" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="C66" s="36" t="s">
         <v>303</v>
-      </c>
-      <c r="C66" s="36" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="34" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B67" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="C67" s="36" t="s">
         <v>305</v>
-      </c>
-      <c r="C67" s="36" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="B69" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="C69" s="0" t="s">
         <v>308</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B70" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="C70" s="0" t="s">
         <v>310</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="B72" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="B72" s="0" t="s">
-        <v>313</v>
-      </c>
       <c r="C72" s="37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B73" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="C73" s="0" t="s">
         <v>314</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B74" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C74" s="0" t="s">
         <v>255</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
